--- a/ComandosGit.xlsx
+++ b/ComandosGit.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helen\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27629"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -341,7 +339,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -383,16 +381,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,7 +489,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -526,7 +524,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -703,7 +701,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -713,18 +711,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="53.85546875" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" customWidth="1"/>
     <col min="3" max="3" width="75" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" customWidth="1"/>
+    <col min="5" max="6" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -732,7 +730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -740,7 +738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" s="10" t="s">
         <v>4</v>
       </c>
@@ -748,7 +746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3">
       <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
@@ -756,7 +754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3">
       <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
@@ -764,7 +762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3">
       <c r="B9" s="11" t="s">
         <v>99</v>
       </c>
@@ -772,7 +770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3">
       <c r="B10" s="11" t="s">
         <v>100</v>
       </c>
@@ -780,7 +778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3">
       <c r="B11" s="11" t="s">
         <v>12</v>
       </c>
@@ -788,7 +786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3">
       <c r="B12" s="11" t="s">
         <v>14</v>
       </c>
@@ -796,7 +794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
@@ -804,7 +802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3">
       <c r="B14" s="11" t="s">
         <v>18</v>
       </c>
@@ -812,7 +810,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3">
       <c r="B15" s="11" t="s">
         <v>20</v>
       </c>
@@ -820,7 +818,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3">
       <c r="B16" s="11" t="s">
         <v>22</v>
       </c>
@@ -828,7 +826,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="11" t="s">
         <v>24</v>
       </c>
@@ -836,7 +834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" ht="28">
       <c r="B18" s="11" t="s">
         <v>26</v>
       </c>
@@ -844,7 +842,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3">
       <c r="B19" s="11" t="s">
         <v>28</v>
       </c>
@@ -852,7 +850,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3">
       <c r="B20" s="11" t="s">
         <v>30</v>
       </c>
@@ -860,7 +858,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3">
       <c r="B21" s="11" t="s">
         <v>32</v>
       </c>
@@ -868,7 +866,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3">
       <c r="B22" s="11" t="s">
         <v>34</v>
       </c>
@@ -876,7 +874,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="11" t="s">
         <v>36</v>
       </c>
@@ -884,7 +882,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="11" t="s">
         <v>37</v>
       </c>
@@ -892,7 +890,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" ht="28">
       <c r="B25" s="11" t="s">
         <v>39</v>
       </c>
@@ -900,7 +898,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="11" t="s">
         <v>41</v>
       </c>
@@ -908,7 +906,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3">
       <c r="B27" s="11" t="s">
         <v>93</v>
       </c>
@@ -916,7 +914,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3">
       <c r="B28" s="11" t="s">
         <v>101</v>
       </c>
@@ -924,7 +922,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="11" t="s">
         <v>43</v>
       </c>
@@ -932,7 +930,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3">
       <c r="B30" s="11" t="s">
         <v>45</v>
       </c>
@@ -940,7 +938,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3">
       <c r="B31" s="11" t="s">
         <v>47</v>
       </c>
@@ -948,7 +946,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3">
       <c r="B32" s="11" t="s">
         <v>49</v>
       </c>
@@ -956,7 +954,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3">
       <c r="B33" s="11" t="s">
         <v>51</v>
       </c>
@@ -964,7 +962,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3">
       <c r="B34" s="11" t="s">
         <v>53</v>
       </c>
@@ -972,7 +970,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3">
       <c r="B35" s="11" t="s">
         <v>55</v>
       </c>
@@ -980,7 +978,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3">
       <c r="B36" s="11" t="s">
         <v>57</v>
       </c>
@@ -988,7 +986,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3">
       <c r="B37" s="11" t="s">
         <v>103</v>
       </c>
@@ -996,7 +994,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3">
       <c r="B38" s="11" t="s">
         <v>59</v>
       </c>
@@ -1004,7 +1002,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3">
       <c r="B39" s="11" t="s">
         <v>61</v>
       </c>
@@ -1012,7 +1010,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3">
       <c r="B40" s="11" t="s">
         <v>63</v>
       </c>
@@ -1020,7 +1018,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3">
       <c r="B41" s="11" t="s">
         <v>65</v>
       </c>
@@ -1028,7 +1026,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3">
       <c r="B42" s="7" t="s">
         <v>67</v>
       </c>
@@ -1036,7 +1034,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3">
       <c r="B43" s="7" t="s">
         <v>69</v>
       </c>
@@ -1044,7 +1042,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3">
       <c r="B44" s="7" t="s">
         <v>71</v>
       </c>
@@ -1052,7 +1050,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" ht="28">
       <c r="B45" s="7" t="s">
         <v>94</v>
       </c>
@@ -1060,7 +1058,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" ht="28">
       <c r="B46" s="7" t="s">
         <v>95</v>
       </c>
@@ -1068,7 +1066,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3">
       <c r="B47" s="7" t="s">
         <v>75</v>
       </c>
@@ -1076,7 +1074,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3">
       <c r="B48" s="7" t="s">
         <v>77</v>
       </c>
@@ -1084,7 +1082,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3">
       <c r="B49" s="7" t="s">
         <v>79</v>
       </c>
@@ -1092,7 +1090,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3">
       <c r="B50" s="7" t="s">
         <v>81</v>
       </c>
@@ -1100,7 +1098,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3">
       <c r="B51" s="8" t="s">
         <v>98</v>
       </c>
@@ -1108,7 +1106,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3">
       <c r="B52" s="4" t="s">
         <v>85</v>
       </c>
@@ -1116,7 +1114,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3">
       <c r="B53" s="4" t="s">
         <v>87</v>
       </c>
@@ -1124,7 +1122,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3">
       <c r="B54" s="4" t="s">
         <v>89</v>
       </c>
@@ -1132,7 +1130,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3">
       <c r="B55" s="4" t="s">
         <v>91</v>
       </c>
@@ -1140,7 +1138,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3">
       <c r="B56" s="7" t="s">
         <v>96</v>
       </c>
@@ -1150,6 +1148,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>